--- a/data/Demo interventions.xlsx
+++ b/data/Demo interventions.xlsx
@@ -1002,16 +1002,16 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1075,7 +1075,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1101,10 +1101,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,31 +1127,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1162,15 +1159,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1187,15 +1184,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1287,7 +1283,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D72" activeCellId="0" sqref="D72"/>
+      <selection pane="bottomLeft" activeCell="D77" activeCellId="0" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1300,7 +1296,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -1405,7 +1401,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="10" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F4" s="11" t="n">
         <v>5.3</v>
@@ -1811,7 +1807,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="10" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F18" s="11" t="n">
         <v>93.4</v>
@@ -2246,7 +2242,7 @@
         <v>15</v>
       </c>
       <c r="E33" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F33" s="17" t="n">
         <v>0.1</v>
@@ -2652,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="E47" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F47" s="17" t="n">
         <v>64.4</v>
@@ -2797,7 +2793,7 @@
         <v>15</v>
       </c>
       <c r="E52" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F52" s="17" t="n">
         <v>0.1</v>
@@ -2942,7 +2938,7 @@
         <v>15</v>
       </c>
       <c r="E57" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F57" s="17" t="n">
         <v>0.1</v>
@@ -3000,7 +2996,7 @@
         <v>15</v>
       </c>
       <c r="E59" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F59" s="17" t="n">
         <v>0.1</v>
@@ -3116,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="E63" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F63" s="17" t="n">
         <v>0.1</v>
@@ -3145,7 +3141,7 @@
         <v>15</v>
       </c>
       <c r="E64" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F64" s="17" t="n">
         <v>0.1</v>
@@ -3203,7 +3199,7 @@
         <v>15</v>
       </c>
       <c r="E66" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F66" s="17" t="n">
         <v>0</v>
@@ -4102,7 +4098,7 @@
         <v>15</v>
       </c>
       <c r="E97" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F97" s="17" t="n">
         <v>0</v>
@@ -4334,7 +4330,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F105" s="17" t="n">
         <v>64.4</v>
@@ -4595,7 +4591,7 @@
         <v>15</v>
       </c>
       <c r="E114" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F114" s="17" t="n">
         <v>0</v>
@@ -5146,7 +5142,7 @@
         <v>15</v>
       </c>
       <c r="E133" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F133" s="17" t="n">
         <v>0.1</v>
@@ -5204,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="E135" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F135" s="17" t="n">
         <v>0</v>
@@ -5233,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="E136" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F136" s="17" t="n">
         <v>0.1</v>
@@ -5697,7 +5693,7 @@
         <v>15</v>
       </c>
       <c r="E152" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F152" s="17" t="n">
         <v>0</v>
@@ -5784,7 +5780,7 @@
         <v>15</v>
       </c>
       <c r="E155" s="16" t="n">
-        <v>999999999</v>
+        <v>100000</v>
       </c>
       <c r="F155" s="17" t="n">
         <v>0</v>
